--- a/evaluation/results/one_svm/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_4/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.1992337164750958</v>
       </c>
       <c r="H2">
-        <v>0.5350454788657035</v>
+        <v>0.762573568753344</v>
       </c>
       <c r="I2">
         <v>6</v>

--- a/evaluation/results/one_svm/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8238434163701067</v>
+        <v>0.4466192170818505</v>
       </c>
       <c r="C2">
-        <v>0.07228915662650602</v>
+        <v>0.07507507507507508</v>
       </c>
       <c r="D2">
-        <v>0.2142857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.1081081081081081</v>
+        <v>0.1385041551246537</v>
       </c>
       <c r="F2">
-        <v>0.1538461538461539</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="G2">
-        <v>0.1992337164750958</v>
+        <v>0.6292352371732817</v>
       </c>
       <c r="H2">
-        <v>0.762573568753344</v>
+        <v>0.7624398073836276</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="K2">
-        <v>457</v>
+        <v>226</v>
       </c>
       <c r="L2">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.954070981210856</v>
+        <v>0.9868995633187773</v>
       </c>
       <c r="C2">
-        <v>0.8558052434456929</v>
+        <v>0.4232209737827715</v>
       </c>
       <c r="D2">
-        <v>0.9022704837117473</v>
+        <v>0.5923984272608126</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.07228915662650602</v>
+        <v>0.07507507507507508</v>
       </c>
       <c r="C3">
-        <v>0.2142857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.1081081081081081</v>
+        <v>0.1385041551246537</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8238434163701067</v>
+        <v>0.4466192170818505</v>
       </c>
       <c r="C4">
-        <v>0.8238434163701067</v>
+        <v>0.4466192170818505</v>
       </c>
       <c r="D4">
-        <v>0.8238434163701067</v>
+        <v>0.4466192170818505</v>
       </c>
       <c r="E4">
-        <v>0.8238434163701067</v>
+        <v>0.4466192170818505</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.513180068918681</v>
+        <v>0.5309873191969262</v>
       </c>
       <c r="C5">
-        <v>0.5350454788657035</v>
+        <v>0.6580390583199572</v>
       </c>
       <c r="D5">
-        <v>0.5051892959099278</v>
+        <v>0.3654512911927332</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9101387906621695</v>
+        <v>0.9414705852568135</v>
       </c>
       <c r="C6">
-        <v>0.8238434163701067</v>
+        <v>0.4466192170818505</v>
       </c>
       <c r="D6">
-        <v>0.8627036749628115</v>
+        <v>0.5697844777593669</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>457</v>
+        <v>226</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
